--- a/eng timetable files/group_info.xlsx
+++ b/eng timetable files/group_info.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsusTuf\Desktop\hse bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsusTuf\Desktop\hse bot\eng timetable files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E91B99D-72AA-4949-86CF-DBD8EE58DDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972AA25C-00F5-4607-9695-4E014BC54BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="0" windowWidth="16020" windowHeight="10548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9240" yWindow="1668" windowWidth="13356" windowHeight="10548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Четверг" sheetId="1" r:id="rId1"/>
-    <sheet name="Суббота" sheetId="2" r:id="rId2"/>
+    <sheet name="четверг" sheetId="1" r:id="rId1"/>
+    <sheet name="суббота" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="42">
   <si>
     <t>08:00-09:20</t>
   </si>
@@ -61,12 +61,6 @@
     <t>026</t>
   </si>
   <si>
-    <t>Львовская</t>
-  </si>
-  <si>
-    <t>Большая Печерская</t>
-  </si>
-  <si>
     <t>11:10-12:30</t>
   </si>
   <si>
@@ -127,7 +121,37 @@
     <t>3 основная</t>
   </si>
   <si>
-    <t>Родионова</t>
+    <t>Субботина В.И.</t>
+  </si>
+  <si>
+    <t>Милащенко Н.Г.</t>
+  </si>
+  <si>
+    <t>Черницкая М.Б.</t>
+  </si>
+  <si>
+    <t>Стародубов С.В.</t>
+  </si>
+  <si>
+    <t>Окишева С.Г.</t>
+  </si>
+  <si>
+    <t>Зуева Е.Е.</t>
+  </si>
+  <si>
+    <t>Модина И.А.</t>
+  </si>
+  <si>
+    <t>Малинина И.А.</t>
+  </si>
+  <si>
+    <t>Л</t>
+  </si>
+  <si>
+    <t>БП</t>
+  </si>
+  <si>
+    <t>Р</t>
   </si>
 </sst>
 </file>
@@ -136,9 +160,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="000"/>
+    <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,16 +183,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -176,12 +217,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -190,9 +246,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -474,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,9 +545,10 @@
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="2"/>
     <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,10 +559,13 @@
         <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -513,10 +576,13 @@
         <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -527,10 +593,13 @@
         <v>302</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -541,10 +610,13 @@
         <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -555,10 +627,13 @@
         <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -569,10 +644,13 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -583,10 +661,13 @@
         <v>307</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -597,10 +678,13 @@
         <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -611,10 +695,13 @@
         <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -625,10 +712,13 @@
         <v>209</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -639,10 +729,13 @@
         <v>302</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -653,10 +746,13 @@
         <v>216</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -667,10 +763,13 @@
         <v>230</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -681,10 +780,13 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -695,40 +797,49 @@
         <v>307</v>
       </c>
       <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2">
         <v>147</v>
       </c>
       <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
       </c>
       <c r="C19" s="2">
         <v>146</v>
       </c>
       <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -737,203 +848,248 @@
         <v>209</v>
       </c>
       <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2">
         <v>302</v>
       </c>
       <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
         <v>216</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2">
         <v>230</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="4">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>307</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2">
         <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2">
         <v>146</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="2">
         <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
         <v>302</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
         <v>216</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2">
         <v>230</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C33" s="4">
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2">
         <v>307</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C36" s="2">
         <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -945,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF053E7-7F94-4C1A-8A78-A850930ACA23}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,84 +1112,103 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1">
         <v>325</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>325</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>207</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
